--- a/InputData/trans/PVTStL/Policy Veh Types Subject to LCFS.xlsx
+++ b/InputData/trans/PVTStL/Policy Veh Types Subject to LCFS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\trans\PVTStL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\trans\PVTStL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE39D9D-8C5C-4506-8739-69D1A3827F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DA89C2-EC9A-4594-93B3-E0EAD909B741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="720" windowWidth="26730" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="465" yWindow="1320" windowWidth="16695" windowHeight="15135" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -522,8 +522,8 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,10 +593,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">

--- a/InputData/trans/PVTStL/Policy Veh Types Subject to LCFS.xlsx
+++ b/InputData/trans/PVTStL/Policy Veh Types Subject to LCFS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\trans\PVTStL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\trans\PVTStL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE39D9D-8C5C-4506-8739-69D1A3827F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8B7640-3F18-4F5C-A9FF-A8B089B6F820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="720" windowWidth="26730" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -523,7 +523,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,10 +593,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">

--- a/InputData/trans/PVTStL/Policy Veh Types Subject to LCFS.xlsx
+++ b/InputData/trans/PVTStL/Policy Veh Types Subject to LCFS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\trans\PVTStL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\trans\PVTStL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DA89C2-EC9A-4594-93B3-E0EAD909B741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0AA5F2-541C-46D7-B162-852B73CF2B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="1320" windowWidth="16695" windowHeight="15135" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34215" yWindow="1425" windowWidth="22245" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -444,14 +444,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,52 +459,52 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -523,17 +523,17 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -544,7 +544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -566,18 +566,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -599,7 +599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
